--- a/results/DT/375Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/375Hz_2classes/res_hyperopt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit\results\DT\375Hz_2classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919819-DA30-47E5-830D-5A02FD76C795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053CA02-9F50-47D0-A7A5-3B73639DDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,34 +53,34 @@
     <t>R1</t>
   </si>
   <si>
-    <t>{'max_depth': 70, 'max_features': 0.3457940373565525, 'min_samples_leaf': 0.0010933014163697987, 'min_samples_split': 0.0333171877981628}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.111, 'max_10_25': 0.043, 'percScore_10_25': 0.016, 'var_10_25': 0.152, 'std_class_10_50': 0.016, 'max_50_100': 0.062, 'std_class_50_100': 0.029, 'max_75_125': 0.108, 'skew_125_175': 0.005, 'max_175_225': 0.008, 'entropy_200_250': 0.027, 'min_225_275': 0.016, 'kurt_250_300': 0.024, 'var_250_300': 0.104, 'kurt_275_325': 0.112, 'skew_275_325': 0.105, 'mean_300_350': 0.032, 'kurt_325_375': 0.03}</t>
+    <t>{'max_depth': 12, 'max_features': 0.3456143514197046, 'min_samples_leaf': 0.010239187600080392, 'min_samples_split': 0.027806895662998397}</t>
+  </si>
+  <si>
+    <t>{'kurt_10_25': 0.022, 'percScore_10_25': 0.039, 'var_10_25': 0.161, 'max_10_50': 0.02, 'min_10_50': 0.013, 'std_class_50_100': 0.019, 'max_75_125': 0.115, 'coef_var_75_125': 0.136, 'var_150_200': 0.021, 'mad_175_225': 0.017, 'min_225_275': 0.005, 'kurt_250_300': 0.025, 'var_250_300': 0.084, 'kurt_275_325': 0.119, 'skew_275_325': 0.111, 'min_275_325': 0.058, 'mean_300_350': 0.034}</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>{'max_depth': 40, 'max_features': 0.15619344803800173, 'min_samples_leaf': 0.01381414751171667, 'min_samples_split': 0.048741665922106686}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.052, 'min_10_25': 0.054, 'var_10_25': 0.129, 'std_class_10_50': 0.033, 'var_10_50': 0.059, 'min_25_75': 0.084, 'kurt_50_100': 0.145, 'kurt_75_125': 0.024, 'percScore_75_125': 0.027, 'min_75_125': 0.013, 'mean_100_150': 0.054, 'kurt_100_150': 0.004, 'score_at_perc_125_175': 0.004, 'kurt_150_200': 0.261, 'max_250_300': 0.056}</t>
+    <t>{'max_depth': 83, 'max_features': 0.8681545166228362, 'min_samples_leaf': 0.11272028581930242, 'min_samples_split': 0.05860469937059912}</t>
+  </si>
+  <si>
+    <t>{'var_10_25': 0.174, 'min_25_75': 0.162, 'max_75_125': 0.023, 'kurt_75_125': 0.587, 'max_250_300': 0.053}</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>{'max_depth': 45, 'max_features': 0.4184139881977861, 'min_samples_leaf': 0.0010534355796918134, 'min_samples_split': 0.0015328212250552062}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.027, 'mean_10_25': 0.045, 'max_10_25': 0.042, 'min_10_25': 0.041, 'std_class_10_25': 0.017, 'mean_10_50': 0.013, 'percScore_10_50': 0.026, 'coef_var_10_50': 0.015, 'kurt_25_75': 0.013, 'min_25_75': 0.215, 'var_25_75': 0.015, 'max_75_125': 0.126, 'percScore_75_125': 0.005, 'kurt_150_200': 0.011, 'var_150_200': 0.015, 'max_175_225': 0.111, 'skew_175_225': 0.035, 'entropy_225_275': 0.013, 'mean_250_300': 0.015, 'max_250_300': 0.025, 'std_class_250_300': 0.06, 'mad_275_325': 0.068, 'kurt_300_350': 0.004, 'var_300_350': 0.012, 'skew_325_375': 0.016, 'entropy_325_375': 0.016}</t>
+    <t>{'max_depth': 90, 'max_features': 0.4061074328442036, 'min_samples_leaf': 0.0010374170033727254, 'min_samples_split': 0.010630471424900844}</t>
+  </si>
+  <si>
+    <t>{'var_325_375': 0.027, 'mean_10_25': 0.045, 'max_10_25': 0.027, 'coef_var_10_25': 0.013, 'percScore_10_50': 0.015, 'var_10_50': 0.023, 'min_25_75': 0.215, 'max_50_100': 0.063, 'kurt_50_100': 0.125, 'skew_50_100': 0.028, 'std_class_50_100': 0.037, 'mean_75_125': 0.049, 'kurt_75_125': 0.083, 'score_at_perc_75_125': 0.016, 'mean_125_175': 0.013, 'var_150_200': 0.015, 'coef_kstatvar_200_250': 0.014, 'max_250_300': 0.037, 'min_250_300': 0.06, 'kurt_275_325': 0.03, 'min_275_325': 0.014, 'var_275_325': 0.023, 'mean_300_350': 0.019, 'kurt_300_350': 0.009}</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>{'max_depth': 44, 'max_features': 0.7486061576059561, 'min_samples_leaf': 0.018188133876482708, 'min_samples_split': 0.046864128605830696}</t>
+    <t>{'max_depth': 97, 'max_features': 0.7495226816144, 'min_samples_leaf': 0.020052960046094935, 'min_samples_split': 0.009472126610217305}</t>
   </si>
   <si>
     <t>{'var_325_375': 0.048, 'score_at_perc_10_25': 0.012, 'min_10_25': 0.067, 'std_class_10_50': 0.049, 'var_10_50': 0.03, 'max_50_100': 0.192, 'score_at_perc_75_125': 0.009, 'kurt_175_225': 0.254, 'skew_175_225': 0.083, 'max_250_300': 0.084, 'skew_250_300': 0.045, 'var_250_300': 0.012, 'min_275_325': 0.115}</t>
@@ -89,16 +89,16 @@
     <t>T2</t>
   </si>
   <si>
-    <t>{'max_depth': 75, 'max_features': 0.7604986190945758, 'min_samples_leaf': 0.01683756909242582, 'min_samples_split': 0.040715374933183085}</t>
-  </si>
-  <si>
-    <t>{'var_10_25': 0.106, 'min_10_50': 0.126, 'var_10_50': 0.174, 'max_50_100': 0.206, 'max_75_125': 0.131, 'var_75_125': 0.002, 'max_150_200': 0.014, 'skew_200_250': 0.002, 'max_250_300': 0.028, 'skew_250_300': 0.003, 'std_class_250_300': 0.108, 'max_275_325': 0.07, 'kurt_300_350': 0.03}</t>
+    <t>{'max_depth': 66, 'max_features': 0.7581229013676785, 'min_samples_leaf': 0.0011512382178356408, 'min_samples_split': 0.008449771235484661}</t>
+  </si>
+  <si>
+    <t>{'var_10_25': 0.093, 'mean_10_50': 0.015, 'min_10_50': 0.111, 'var_10_50': 0.153, 'max_50_100': 0.181, 'max_75_125': 0.116, 'kurt_100_150': 0.016, 'var_125_175': 0.024, 'kurt_150_200': 0.015, 'std_class_150_200': 0.015, 'max_250_300': 0.059, 'skew_250_300': 0.015, 'std_class_250_300': 0.095, 'max_275_325': 0.062, 'max_300_350': 0.03}</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>{'max_depth': 36, 'max_features': 0.8204815659511646, 'min_samples_leaf': 0.0012128239845414553, 'min_samples_split': 0.019146810509768006}</t>
+    <t>{'max_depth': 8, 'max_features': 0.8196647011911392, 'min_samples_leaf': 0.0011017778107444698, 'min_samples_split': 0.026231299338357484}</t>
   </si>
   <si>
     <t>{'mean_10_25': 0.093, 'score_at_perc_10_25': 0.069, 'std_class_10_25': 0.016, 'var_10_25': 0.076, 'mean_10_50': 0.069, 'min_25_75': 0.064, 'max_50_100': 0.061, 'max_75_125': 0.212, 'max_175_225': 0.141, 'std_class_175_225': 0.098, 'min_200_250': 0.024, 'var_225_275': 0.044, 'var_250_300': 0.032}</t>
@@ -107,82 +107,82 @@
     <t>R1_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 43, 'max_features': 0.6745969077905778, 'min_samples_leaf': 0.0013466920450086776, 'min_samples_split': 0.02451894113031892}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.159, 'kurt_10_25': 0.02, 'skew_10_25': 0.012, 'var_10_25': 0.156, 'coef_var_10_50': 0.04, 'std_class_10_50': 0.049, 'score_at_perc_50_100': 0.007, 'max_75_125': 0.144, 'max_150_200': 0.015, 'var_150_200': 0.022, 'min_200_250': 0.037, 'mad_225_275': 0.012, 'max_250_300': 0.205, 'mean_275_325': 0.012, 'min_275_325': 0.076, 'max_300_350': 0.034}</t>
+    <t>{'max_depth': 88, 'max_features': 0.30918256479793543, 'min_samples_leaf': 0.03690559327969966, 'min_samples_split': 0.02274872435196921}</t>
+  </si>
+  <si>
+    <t>{'var_325_375': 0.21, 'coef_var_10_25': 0.08, 'coef_kstatvar_10_25': 0.017, 'var_10_50': 0.048, 'var_25_75': 0.048, 'max_75_125': 0.23, 'mad_100_150': 0.001, 'skew_200_250': 0.031, 'max_250_300': 0.001, 'kurt_250_300': 0.021, 'std_class_250_300': 0.085, 'max_275_325': 0.229}</t>
   </si>
   <si>
     <t>R1_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 51, 'max_features': 0.6260389908611377, 'min_samples_leaf': 0.010404310625042181, 'min_samples_split': 0.01940901501968762}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.021, 'score_at_perc_10_25': 0.057, 'std_class_10_25': 0.064, 'var_10_25': 0.061, 'skew_10_50': 0.02, 'min_10_50': 0.083, 'var_10_50': 0.047, 'skew_50_100': 0.018, 'var_50_100': 0.007, 'max_75_125': 0.185, 'max_150_200': 0.026, 'max_175_225': 0.165, 'min_175_225': 0.073, 'max_200_250': 0.005, 'skew_200_250': 0.016, 'std_class_225_275': 0.002, 'var_225_275': 0.048, 'max_250_300': 0.029, 'kurt_250_300': 0.017, 'max_275_325': 0.035, 'kurt_275_325': 0.022}</t>
+    <t>{'max_depth': 19, 'max_features': 0.7479363762112211, 'min_samples_leaf': 0.010369530156946428, 'min_samples_split': 0.0012300027229911643}</t>
+  </si>
+  <si>
+    <t>{'mean_10_25': 0.115, 'kurt_10_25': 0.017, 'score_at_perc_10_25': 0.05, 'std_class_10_25': 0.061, 'var_10_25': 0.065, 'entropy_10_50': 0.01, 'min_10_50': 0.003, 'std_class_10_50': 0.085, 'var_10_50': 0.048, 'skew_25_75': 0.031, 'percScore_50_100': 0.008, 'max_75_125': 0.185, 'kurt_100_150': 0.048, 'skew_125_175': 0.003, 'std_class_125_175': 0.008, 'max_150_200': 0.027, 'std_class_150_200': 0.03, 'max_175_225': 0.168, 'skew_250_300': 0.003, 'skew_275_325': 0.003, 'score_at_perc_300_350': 0.022, 'score_at_perc_325_375': 0.009}</t>
   </si>
   <si>
     <t>R1_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 51, 'max_features': 0.42519852165166605, 'min_samples_leaf': 0.031713843696371924, 'min_samples_split': 0.041015921844322664}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.092, 'max_10_25': 0.062, 'min_10_50': 0.126, 'std_class_25_75': 0.025, 'var_25_75': 0.053, 'percScore_50_100': 0.017, 'max_75_125': 0.242, 'min_150_200': 0.078, 'kurt_175_225': 0.214, 'skew_225_275': 0.04, 'mad_225_275': 0.001, 'max_250_300': 0.01, 'kurt_250_300': 0.041}</t>
+    <t>{'max_depth': 15, 'max_features': 0.24250126956993678, 'min_samples_leaf': 0.030090598095989785, 'min_samples_split': 0.030604640465699842}</t>
+  </si>
+  <si>
+    <t>{'var_325_375': 0.048, 'score_at_perc_10_25': 0.046, 'var_10_25': 0.075, 'min_10_50': 0.123, 'entropy_25_75': 0.011, 'coef_var_25_75': 0.004, 'mean_75_125': 0.126, 'max_75_125': 0.076, 'kurt_150_200': 0.229, 'mad_175_225': 0.001, 'max_250_300': 0.051, 'max_275_325': 0.098, 'min_275_325': 0.062, 'kurt_300_350': 0.025, 'score_at_perc_300_350': 0.025}</t>
   </si>
   <si>
     <t>R2_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 19, 'max_features': 0.5927524822845992, 'min_samples_leaf': 0.002361242876041958, 'min_samples_split': 0.14839000685346362}</t>
-  </si>
-  <si>
-    <t>{'percScore_10_25': 0.052, 'score_at_perc_10_25': 0.078, 'skew_10_50': 0.012, 'min_10_50': 0.072, 'mean_25_75': 0.004, 'var_25_75': 0.054, 'var_50_100': 0.151, 'max_75_125': 0.301, 'kurt_75_125': 0.014, 'max_150_200': 0.02, 'min_175_225': 0.077, 'max_250_300': 0.145, 'skew_275_325': 0.005, 'mad_300_350': 0.015}</t>
+    <t>{'max_depth': 7, 'max_features': 0.44896055886036224, 'min_samples_leaf': 0.05086957287842452, 'min_samples_split': 0.0713437929404652}</t>
+  </si>
+  <si>
+    <t>{'score_at_perc_10_25': 0.094, 'std_class_10_50': 0.048, 'min_25_75': 0.117, 'mean_50_100': 0.012, 'max_50_100': 0.069, 'var_50_100': 0.148, 'max_75_125': 0.334, 'min_100_150': 0.005, 'max_275_325': 0.144, 'max_300_350': 0.03}</t>
   </si>
   <si>
     <t>R2_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 34, 'max_features': 0.43756904798148744, 'min_samples_leaf': 0.017120288797418195, 'min_samples_split': 0.08357792648006403}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.117, 'mean_10_25': 0.171, 'min_10_50': 0.109, 'coef_kstatvar_25_75': 0.048, 'percScore_50_100': 0.011, 'max_75_125': 0.283, 'var_225_275': 0.059, 'max_250_300': 0.161, 'min_275_325': 0.007, 'max_300_350': 0.006, 'kurt_300_350': 0.027}</t>
+    <t>{'max_depth': 56, 'max_features': 0.4102147019281423, 'min_samples_leaf': 0.2961407312512958, 'min_samples_split': 0.45605268911655583}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 1.0}</t>
   </si>
   <si>
     <t>R2_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 36, 'max_features': 0.08139364910730948, 'min_samples_leaf': 0.007206157891684472, 'min_samples_split': 0.020365161169327847}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.061, 'mean_10_25': 0.09, 'score_at_perc_10_25': 0.062, 'std_class_10_25': 0.028, 'score_at_perc_10_50': 0.049, 'min_10_50': 0.036, 'std_class_10_50': 0.098, 'var_10_50': 0.031, 'max_25_75': 0.044, 'var_25_75': 0.026, 'coef_var_50_100': 0.049, 'var_50_100': 0.02, 'max_75_125': 0.025, 'mad_75_125': 0.028, 'std_class_75_125': 0.039, 'entropy_100_150': 0.032, 'kurt_150_200': 0.117, 'min_150_200': 0.038, 'std_class_150_200': 0.005, 'kurt_175_225': 0.004, 'var_175_225': 0.01, 'std_class_225_275': 0.003, 'max_250_300': 0.079, 'std_class_250_300': 0.011, 'var_250_300': 0.012, 'kurt_275_325': 0.004}</t>
+    <t>{'max_depth': 34, 'max_features': 0.08241349005593857, 'min_samples_leaf': 0.001036831204650845, 'min_samples_split': 0.02504862060356506}</t>
+  </si>
+  <si>
+    <t>{'mean_10_25': 0.016, 'percScore_10_25': 0.057, 'min_10_25': 0.045, 'var_10_25': 0.035, 'var_10_50': 0.028, 'coef_kstatvar_25_75': 0.024, 'std_class_25_75': 0.026, 'kurt_50_100': 0.047, 'var_50_100': 0.02, 'max_75_125': 0.083, 'min_75_125': 0.012, 'std_class_75_125': 0.04, 'min_100_150': 0.011, 'kurt_150_200': 0.119, 'mad_150_200': 0.02, 'std_class_150_200': 0.082, 'min_175_225': 0.093, 'max_225_275': 0.025, 'var_225_275': 0.062, 'kurt_250_300': 0.039, 'kurt_275_325': 0.091, 'score_at_perc_275_325': 0.023, 'skew_300_350': 0.003}</t>
   </si>
   <si>
     <t>R3_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 17, 'max_features': 0.4390853135295704, 'min_samples_leaf': 0.0012271472865545904, 'min_samples_split': 0.0011541315489712045}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.05, 'mean_10_25': 0.091, 'kurt_10_25': 0.02, 'coef_var_10_25': 0.018, 'std_class_10_25': 0.026, 'var_10_25': 0.038, 'mean_10_50': 0.039, 'coef_var_10_50': 0.033, 'min_25_75': 0.061, 'var_25_75': 0.011, 'max_50_100': 0.083, 'var_50_100': 0.022, 'max_75_125': 0.167, 'skew_75_125': 0.011, 'score_at_perc_100_150': 0.044, 'kurt_175_225': 0.134, 'min_225_275': 0.011, 'var_225_275': 0.01, 'kurt_250_300': 0.048, 'min_250_300': 0.027, 'kurt_275_325': 0.014, 'std_class_275_325': 0.02, 'max_300_350': 0.01, 'min_300_350': 0.011}</t>
+    <t>{'max_depth': 89, 'max_features': 0.49739465407674993, 'min_samples_leaf': 0.0014225941860770489, 'min_samples_split': 0.01087806787460495}</t>
+  </si>
+  <si>
+    <t>{'score_at_perc_10_25': 0.081, 'min_10_25': 0.076, 'std_class_10_25': 0.046, 'score_at_perc_10_50': 0.011, 'min_10_50': 0.044, 'std_class_10_50': 0.014, 'std_class_25_75': 0.018, 'var_25_75': 0.083, 'max_75_125': 0.167, 'coef_kstatvar_75_125': 0.011, 'min_100_150': 0.011, 'kurt_150_200': 0.011, 'var_150_200': 0.133, 'mean_175_225': 0.011, 'max_175_225': 0.01, 'skew_175_225': 0.029, 'std_class_175_225': 0.022, 'var_200_250': 0.028, 'max_250_300': 0.141, 'std_class_250_300': 0.011, 'kurt_275_325': 0.017, 'var_300_350': 0.008, 'std_class_325_375': 0.014}</t>
   </si>
   <si>
     <t>R3_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 93, 'max_features': 0.6014233398995128, 'min_samples_leaf': 0.011677924986066263, 'min_samples_split': 0.0013040392010089594}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.071, 'skew_10_25': 0.038, 'percScore_10_25': 0.002, 'score_at_perc_10_25': 0.031, 'min_10_25': 0.002, 'std_class_10_25': 0.027, 'percScore_25_75': 0.019, 'coef_var_25_75': 0.018, 'mean_50_100': 0.01, 'coef_var_50_100': 0.075, 'var_50_100': 0.035, 'max_75_125': 0.297, 'std_class_150_200': 0.044, 'max_175_225': 0.219, 'max_250_300': 0.059, 'max_275_325': 0.049, 'coef_kstatvar_275_325': 0.002}</t>
+    <t>{'max_depth': 74, 'max_features': 0.1683917182090601, 'min_samples_leaf': 0.0011675278387655065, 'min_samples_split': 0.047465878936832115}</t>
+  </si>
+  <si>
+    <t>{'var_325_375': 0.014, 'mean_10_25': 0.128, 'kurt_10_25': 0.025, 'min_10_25': 0.023, 'std_class_10_25': 0.086, 'mean_75_125': 0.065, 'kurt_75_125': 0.068, 'coef_kstatvar_125_175': 0.02, 'kurt_150_200': 0.098, 'var_150_200': 0.064, 'mad_200_250': 0.024, 'kurt_250_300': 0.139, 'var_250_300': 0.097, 'max_275_325': 0.083, 'kurt_300_350': 0.014, 'entropy_325_375': 0.043, 'std_class_325_375': 0.011}</t>
   </si>
   <si>
     <t>R3_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 44, 'max_features': 0.34182015745583944, 'min_samples_leaf': 0.009757558409964437, 'min_samples_split': 0.06733711753357083}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.041, 'mean_10_25': 0.047, 'coef_kstatvar_10_25': 0.003, 'var_10_25': 0.125, 'std_class_10_50': 0.057, 'min_25_75': 0.167, 'var_50_100': 0.071, 'max_75_125': 0.252, 'score_at_perc_150_200': 0.003, 'max_250_300': 0.017, 'kurt_250_300': 0.039, 'min_250_300': 0.078, 'min_275_325': 0.063, 'max_300_350': 0.013, 'entropy_300_350': 0.023}</t>
+    <t>{'max_depth': 61, 'max_features': 0.3517326351044758, 'min_samples_leaf': 0.01971320966813294, 'min_samples_split': 0.10353848108705016}</t>
+  </si>
+  <si>
+    <t>{'var_325_375': 0.094, 'mean_10_25': 0.216, 'var_10_25': 0.075, 'max_75_125': 0.259, 'var_75_125': 0.034, 'max_150_200': 0.128, 'var_225_275': 0.079, 'max_250_300': 0.106, 'kurt_250_300': 0.001, 'max_300_350': 0.007}</t>
   </si>
 </sst>
 </file>
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -552,12 +552,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D2">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -605,10 +605,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="D3">
-        <v>0.78</v>
+        <v>0.69</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -665,10 +665,10 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D9">
         <v>0.92</v>
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -765,10 +765,10 @@
         <v>32</v>
       </c>
       <c r="C11">
+        <v>0.89</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
-      </c>
-      <c r="D11">
-        <v>0.82</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="D12">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -808,7 +808,7 @@
         <v>0.97</v>
       </c>
       <c r="D13">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -848,7 +848,7 @@
         <v>0.97</v>
       </c>
       <c r="D15">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -865,10 +865,10 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D16">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -880,11 +880,11 @@
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f>AVERAGE(C2:C16)</f>
-        <v>0.95933333333333337</v>
+        <v>0.93666666666666676</v>
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D16)</f>
-        <v>0.84666666666666679</v>
+        <v>0.86066666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/results/DT/375Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/375Hz_2classes/res_hyperopt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\ForGit\results\DT\375Hz_2classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053CA02-9F50-47D0-A7A5-3B73639DDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6707A02-C6D5-472E-A57C-036B38F20C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
-    <t>name</t>
+    <t>load</t>
   </si>
   <si>
     <t>acc_train</t>
@@ -53,136 +53,136 @@
     <t>R1</t>
   </si>
   <si>
-    <t>{'max_depth': 12, 'max_features': 0.3456143514197046, 'min_samples_leaf': 0.010239187600080392, 'min_samples_split': 0.027806895662998397}</t>
-  </si>
-  <si>
-    <t>{'kurt_10_25': 0.022, 'percScore_10_25': 0.039, 'var_10_25': 0.161, 'max_10_50': 0.02, 'min_10_50': 0.013, 'std_class_50_100': 0.019, 'max_75_125': 0.115, 'coef_var_75_125': 0.136, 'var_150_200': 0.021, 'mad_175_225': 0.017, 'min_225_275': 0.005, 'kurt_250_300': 0.025, 'var_250_300': 0.084, 'kurt_275_325': 0.119, 'skew_275_325': 0.111, 'min_275_325': 0.058, 'mean_300_350': 0.034}</t>
+    <t>{'max_depth': 28, 'max_features': 0.342639992808756, 'min_samples_leaf': 0.0013034913632869911, 'min_samples_split': 0.036317701055827836}</t>
+  </si>
+  <si>
+    <t>{'var_10_25': 0.152, 'kurt_275_325': 0.112, 'mean_10_25': 0.111, 'max_75_125': 0.108, 'skew_275_325': 0.105, 'var_250_300': 0.104, 'max_50_100': 0.062, 'max_10_25': 0.043, 'mean_300_350': 0.032, 'kurt_325_375': 0.03, 'std_class_50_100': 0.029, 'entropy_200_250': 0.027, 'kurt_250_300': 0.024, 'percScore_10_25': 0.016, 'std_class_10_50': 0.016, 'min_225_275': 0.016, 'max_175_225': 0.008, 'skew_125_175': 0.005}</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>{'max_depth': 83, 'max_features': 0.8681545166228362, 'min_samples_leaf': 0.11272028581930242, 'min_samples_split': 0.05860469937059912}</t>
-  </si>
-  <si>
-    <t>{'var_10_25': 0.174, 'min_25_75': 0.162, 'max_75_125': 0.023, 'kurt_75_125': 0.587, 'max_250_300': 0.053}</t>
+    <t>{'max_depth': 12, 'max_features': 0.9163354967311016, 'min_samples_leaf': 0.11395916699485079, 'min_samples_split': 0.264274301693881}</t>
+  </si>
+  <si>
+    <t>{'kurt_75_125': 0.644, 'var_325_375': 0.184, 'min_25_75': 0.172}</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>{'max_depth': 90, 'max_features': 0.4061074328442036, 'min_samples_leaf': 0.0010374170033727254, 'min_samples_split': 0.010630471424900844}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.027, 'mean_10_25': 0.045, 'max_10_25': 0.027, 'coef_var_10_25': 0.013, 'percScore_10_50': 0.015, 'var_10_50': 0.023, 'min_25_75': 0.215, 'max_50_100': 0.063, 'kurt_50_100': 0.125, 'skew_50_100': 0.028, 'std_class_50_100': 0.037, 'mean_75_125': 0.049, 'kurt_75_125': 0.083, 'score_at_perc_75_125': 0.016, 'mean_125_175': 0.013, 'var_150_200': 0.015, 'coef_kstatvar_200_250': 0.014, 'max_250_300': 0.037, 'min_250_300': 0.06, 'kurt_275_325': 0.03, 'min_275_325': 0.014, 'var_275_325': 0.023, 'mean_300_350': 0.019, 'kurt_300_350': 0.009}</t>
+    <t>{'max_depth': 82, 'max_features': 0.6893890831430598, 'min_samples_leaf': 0.0015665994906137088, 'min_samples_split': 0.05669862784672171}</t>
+  </si>
+  <si>
+    <t>{'min_25_75': 0.24, 'max_75_125': 0.169, 'kurt_75_125': 0.082, 'std_class_250_300': 0.067, 'max_150_200': 0.064, 'kurt_275_325': 0.06, 'var_50_100': 0.056, 'mean_10_25': 0.049, 'coef_var_50_100': 0.036, 'skew_250_300': 0.035, 'kurt_10_25': 0.033, 'min_10_25': 0.03, 'std_class_10_25': 0.017, 'var_10_25': 0.017, 'percScore_10_50': 0.017, 'var_225_275': 0.017, 'max_300_350': 0.011}</t>
   </si>
   <si>
     <t>T1</t>
   </si>
   <si>
-    <t>{'max_depth': 97, 'max_features': 0.7495226816144, 'min_samples_leaf': 0.020052960046094935, 'min_samples_split': 0.009472126610217305}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.048, 'score_at_perc_10_25': 0.012, 'min_10_25': 0.067, 'std_class_10_50': 0.049, 'var_10_50': 0.03, 'max_50_100': 0.192, 'score_at_perc_75_125': 0.009, 'kurt_175_225': 0.254, 'skew_175_225': 0.083, 'max_250_300': 0.084, 'skew_250_300': 0.045, 'var_250_300': 0.012, 'min_275_325': 0.115}</t>
+    <t>{'max_depth': 70, 'max_features': 0.7365613921084408, 'min_samples_leaf': 0.01778238380343841, 'min_samples_split': 0.001000649078705576}</t>
+  </si>
+  <si>
+    <t>{'max_175_225': 0.256, 'max_50_100': 0.194, 'min_275_325': 0.115, 'max_250_300': 0.085, 'skew_175_225': 0.084, 'var_10_25': 0.067, 'min_10_25': 0.06, 'std_class_10_50': 0.049, 'max_25_75': 0.038, 'score_at_perc_25_75': 0.03, 'var_225_275': 0.012, 'score_at_perc_75_125': 0.009}</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>{'max_depth': 66, 'max_features': 0.7581229013676785, 'min_samples_leaf': 0.0011512382178356408, 'min_samples_split': 0.008449771235484661}</t>
-  </si>
-  <si>
-    <t>{'var_10_25': 0.093, 'mean_10_50': 0.015, 'min_10_50': 0.111, 'var_10_50': 0.153, 'max_50_100': 0.181, 'max_75_125': 0.116, 'kurt_100_150': 0.016, 'var_125_175': 0.024, 'kurt_150_200': 0.015, 'std_class_150_200': 0.015, 'max_250_300': 0.059, 'skew_250_300': 0.015, 'std_class_250_300': 0.095, 'max_275_325': 0.062, 'max_300_350': 0.03}</t>
+    <t>{'max_depth': 81, 'max_features': 0.7542655814213973, 'min_samples_leaf': 0.013341073504314646, 'min_samples_split': 0.02951892789035136}</t>
+  </si>
+  <si>
+    <t>{'max_50_100': 0.375, 'mean_10_25': 0.173, 'max_10_25': 0.116, 'std_class_10_50': 0.08, 'std_class_175_225': 0.08, 'max_275_325': 0.043, 'score_at_perc_100_150': 0.037, 'kurt_175_225': 0.035, 'coef_kstatvar_75_125': 0.029, 'max_150_200': 0.017, 'skew_150_200': 0.004, 'std_class_25_75': 0.003, 'score_at_perc_200_250': 0.003, 'std_class_200_250': 0.002}</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>{'max_depth': 8, 'max_features': 0.8196647011911392, 'min_samples_leaf': 0.0011017778107444698, 'min_samples_split': 0.026231299338357484}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.093, 'score_at_perc_10_25': 0.069, 'std_class_10_25': 0.016, 'var_10_25': 0.076, 'mean_10_50': 0.069, 'min_25_75': 0.064, 'max_50_100': 0.061, 'max_75_125': 0.212, 'max_175_225': 0.141, 'std_class_175_225': 0.098, 'min_200_250': 0.024, 'var_225_275': 0.044, 'var_250_300': 0.032}</t>
+    <t>{'max_depth': 81, 'max_features': 0.8185874521100174, 'min_samples_leaf': 0.0024385909691376473, 'min_samples_split': 0.019079255242234895}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.212, 'max_175_225': 0.141, 'std_class_175_225': 0.098, 'mean_10_25': 0.093, 'var_10_25': 0.076, 'score_at_perc_10_25': 0.069, 'mean_10_50': 0.069, 'min_25_75': 0.064, 'max_50_100': 0.061, 'var_225_275': 0.044, 'var_250_300': 0.032, 'min_200_250': 0.024, 'std_class_10_25': 0.016}</t>
   </si>
   <si>
     <t>R1_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 88, 'max_features': 0.30918256479793543, 'min_samples_leaf': 0.03690559327969966, 'min_samples_split': 0.02274872435196921}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.21, 'coef_var_10_25': 0.08, 'coef_kstatvar_10_25': 0.017, 'var_10_50': 0.048, 'var_25_75': 0.048, 'max_75_125': 0.23, 'mad_100_150': 0.001, 'skew_200_250': 0.031, 'max_250_300': 0.001, 'kurt_250_300': 0.021, 'std_class_250_300': 0.085, 'max_275_325': 0.229}</t>
+    <t>{'max_depth': 45, 'max_features': 0.8697032924636272, 'min_samples_leaf': 0.0011666971280045709, 'min_samples_split': 0.012216243624344942}</t>
+  </si>
+  <si>
+    <t>{'max_250_300': 0.196, 'max_75_125': 0.137, 'var_325_375': 0.124, 'mean_10_25': 0.118, 'std_class_275_325': 0.072, 'var_10_25': 0.055, 'var_100_150': 0.044, 'kurt_10_25': 0.036, 'kurt_200_250': 0.035, 'max_300_350': 0.033, 'max_100_150': 0.027, 'coef_kstatvar_175_225': 0.017, 'std_class_200_250': 0.017, 'min_10_50': 0.015, 'max_150_200': 0.014, 'skew_10_25': 0.012, 'entropy_250_300': 0.012, 'var_150_200': 0.011, 'mad_250_300': 0.011, 'std_class_25_75': 0.009, 'score_at_perc_50_100': 0.006}</t>
   </si>
   <si>
     <t>R1_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 19, 'max_features': 0.7479363762112211, 'min_samples_leaf': 0.010369530156946428, 'min_samples_split': 0.0012300027229911643}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.115, 'kurt_10_25': 0.017, 'score_at_perc_10_25': 0.05, 'std_class_10_25': 0.061, 'var_10_25': 0.065, 'entropy_10_50': 0.01, 'min_10_50': 0.003, 'std_class_10_50': 0.085, 'var_10_50': 0.048, 'skew_25_75': 0.031, 'percScore_50_100': 0.008, 'max_75_125': 0.185, 'kurt_100_150': 0.048, 'skew_125_175': 0.003, 'std_class_125_175': 0.008, 'max_150_200': 0.027, 'std_class_150_200': 0.03, 'max_175_225': 0.168, 'skew_250_300': 0.003, 'skew_275_325': 0.003, 'score_at_perc_300_350': 0.022, 'score_at_perc_325_375': 0.009}</t>
+    <t>{'max_depth': 90, 'max_features': 0.5389034406687707, 'min_samples_leaf': 0.01011636446530106, 'min_samples_split': 0.019350440920145588}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.183, 'kurt_175_225': 0.159, 'std_class_10_50': 0.088, 'std_class_125_175': 0.088, 'mean_10_25': 0.08, 'score_at_perc_10_25': 0.061, 'min_10_25': 0.048, 'min_175_225': 0.045, 'skew_75_125': 0.031, 'std_class_150_200': 0.031, 'var_250_300': 0.031, 'kurt_275_325': 0.028, 'percScore_50_100': 0.027, 'kurt_250_300': 0.022, 'skew_225_275': 0.021, 'max_175_225': 0.014, 'min_200_250': 0.01, 'score_at_perc_175_225': 0.009, 'mean_225_275': 0.009, 'skew_125_175': 0.006, 'coef_kstatvar_100_150': 0.003, 'max_10_25': 0.002, 'entropy_175_225': 0.002}</t>
   </si>
   <si>
     <t>R1_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 15, 'max_features': 0.24250126956993678, 'min_samples_leaf': 0.030090598095989785, 'min_samples_split': 0.030604640465699842}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.048, 'score_at_perc_10_25': 0.046, 'var_10_25': 0.075, 'min_10_50': 0.123, 'entropy_25_75': 0.011, 'coef_var_25_75': 0.004, 'mean_75_125': 0.126, 'max_75_125': 0.076, 'kurt_150_200': 0.229, 'mad_175_225': 0.001, 'max_250_300': 0.051, 'max_275_325': 0.098, 'min_275_325': 0.062, 'kurt_300_350': 0.025, 'score_at_perc_300_350': 0.025}</t>
+    <t>{'max_depth': 11, 'max_features': 0.42382801446662766, 'min_samples_leaf': 0.029476378874459724, 'min_samples_split': 0.11360582858336794}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.247, 'kurt_175_225': 0.219, 'min_10_50': 0.134, 'var_325_375': 0.094, 'min_150_200': 0.079, 'max_10_25': 0.063, 'kurt_10_50': 0.054, 'kurt_250_300': 0.042, 'skew_225_275': 0.041, 'percScore_50_100': 0.018, 'var_175_225': 0.009}</t>
   </si>
   <si>
     <t>R2_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 7, 'max_features': 0.44896055886036224, 'min_samples_leaf': 0.05086957287842452, 'min_samples_split': 0.0713437929404652}</t>
-  </si>
-  <si>
-    <t>{'score_at_perc_10_25': 0.094, 'std_class_10_50': 0.048, 'min_25_75': 0.117, 'mean_50_100': 0.012, 'max_50_100': 0.069, 'var_50_100': 0.148, 'max_75_125': 0.334, 'min_100_150': 0.005, 'max_275_325': 0.144, 'max_300_350': 0.03}</t>
+    <t>{'max_depth': 78, 'max_features': 0.21225720928150316, 'min_samples_leaf': 0.009733362401523254, 'min_samples_split': 0.05244096709200837}</t>
+  </si>
+  <si>
+    <t>{'std_class_10_50': 0.229, 'max_275_325': 0.137, 'kurt_150_200': 0.13, 'max_75_125': 0.111, 'min_10_50': 0.089, 'std_class_150_200': 0.088, 'var_50_100': 0.057, 'percScore_10_25': 0.051, 'mean_200_250': 0.039, 'kurt_200_250': 0.032, 'min_175_225': 0.019, 'mean_10_25': 0.014, 'mad_100_150': 0.004}</t>
   </si>
   <si>
     <t>R2_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 56, 'max_features': 0.4102147019281423, 'min_samples_leaf': 0.2961407312512958, 'min_samples_split': 0.45605268911655583}</t>
-  </si>
-  <si>
-    <t>{'max_75_125': 1.0}</t>
+    <t>{'max_depth': 2, 'max_features': 0.3981927213294045, 'min_samples_leaf': 0.18879834674094223, 'min_samples_split': 0.1545207845243199}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.752, 'max_175_225': 0.248}</t>
   </si>
   <si>
     <t>R2_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 34, 'max_features': 0.08241349005593857, 'min_samples_leaf': 0.001036831204650845, 'min_samples_split': 0.02504862060356506}</t>
-  </si>
-  <si>
-    <t>{'mean_10_25': 0.016, 'percScore_10_25': 0.057, 'min_10_25': 0.045, 'var_10_25': 0.035, 'var_10_50': 0.028, 'coef_kstatvar_25_75': 0.024, 'std_class_25_75': 0.026, 'kurt_50_100': 0.047, 'var_50_100': 0.02, 'max_75_125': 0.083, 'min_75_125': 0.012, 'std_class_75_125': 0.04, 'min_100_150': 0.011, 'kurt_150_200': 0.119, 'mad_150_200': 0.02, 'std_class_150_200': 0.082, 'min_175_225': 0.093, 'max_225_275': 0.025, 'var_225_275': 0.062, 'kurt_250_300': 0.039, 'kurt_275_325': 0.091, 'score_at_perc_275_325': 0.023, 'skew_300_350': 0.003}</t>
+    <t>{'max_depth': 17, 'max_features': 0.08348072208271749, 'min_samples_leaf': 0.001547980736341929, 'min_samples_split': 0.023596571675507882}</t>
+  </si>
+  <si>
+    <t>{'kurt_150_200': 0.119, 'min_175_225': 0.093, 'kurt_275_325': 0.091, 'max_75_125': 0.083, 'std_class_150_200': 0.082, 'var_225_275': 0.062, 'percScore_10_25': 0.057, 'kurt_50_100': 0.047, 'min_10_25': 0.045, 'std_class_75_125': 0.04, 'kurt_250_300': 0.039, 'var_10_25': 0.035, 'var_10_50': 0.028, 'std_class_25_75': 0.026, 'max_225_275': 0.025, 'coef_kstatvar_25_75': 0.024, 'score_at_perc_275_325': 0.023, 'var_50_100': 0.02, 'mad_150_200': 0.02, 'mean_10_25': 0.016, 'min_75_125': 0.012, 'min_100_150': 0.011, 'skew_300_350': 0.003}</t>
   </si>
   <si>
     <t>R3_T1</t>
   </si>
   <si>
-    <t>{'max_depth': 89, 'max_features': 0.49739465407674993, 'min_samples_leaf': 0.0014225941860770489, 'min_samples_split': 0.01087806787460495}</t>
-  </si>
-  <si>
-    <t>{'score_at_perc_10_25': 0.081, 'min_10_25': 0.076, 'std_class_10_25': 0.046, 'score_at_perc_10_50': 0.011, 'min_10_50': 0.044, 'std_class_10_50': 0.014, 'std_class_25_75': 0.018, 'var_25_75': 0.083, 'max_75_125': 0.167, 'coef_kstatvar_75_125': 0.011, 'min_100_150': 0.011, 'kurt_150_200': 0.011, 'var_150_200': 0.133, 'mean_175_225': 0.011, 'max_175_225': 0.01, 'skew_175_225': 0.029, 'std_class_175_225': 0.022, 'var_200_250': 0.028, 'max_250_300': 0.141, 'std_class_250_300': 0.011, 'kurt_275_325': 0.017, 'var_300_350': 0.008, 'std_class_325_375': 0.014}</t>
+    <t>{'max_depth': 39, 'max_features': 0.49881213401337277, 'min_samples_leaf': 0.0012093036383445908, 'min_samples_split': 0.001953223097393264}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.167, 'max_250_300': 0.141, 'var_150_200': 0.133, 'var_25_75': 0.083, 'score_at_perc_10_25': 0.081, 'min_10_25': 0.076, 'std_class_10_25': 0.046, 'min_10_50': 0.044, 'skew_175_225': 0.029, 'var_200_250': 0.028, 'std_class_175_225': 0.022, 'std_class_25_75': 0.018, 'kurt_275_325': 0.017, 'std_class_10_50': 0.014, 'std_class_325_375': 0.014, 'score_at_perc_10_50': 0.011, 'coef_kstatvar_75_125': 0.011, 'min_100_150': 0.011, 'kurt_150_200': 0.011, 'mean_175_225': 0.011, 'std_class_250_300': 0.011, 'max_175_225': 0.01, 'var_300_350': 0.008}</t>
   </si>
   <si>
     <t>R3_T2</t>
   </si>
   <si>
-    <t>{'max_depth': 74, 'max_features': 0.1683917182090601, 'min_samples_leaf': 0.0011675278387655065, 'min_samples_split': 0.047465878936832115}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.014, 'mean_10_25': 0.128, 'kurt_10_25': 0.025, 'min_10_25': 0.023, 'std_class_10_25': 0.086, 'mean_75_125': 0.065, 'kurt_75_125': 0.068, 'coef_kstatvar_125_175': 0.02, 'kurt_150_200': 0.098, 'var_150_200': 0.064, 'mad_200_250': 0.024, 'kurt_250_300': 0.139, 'var_250_300': 0.097, 'max_275_325': 0.083, 'kurt_300_350': 0.014, 'entropy_325_375': 0.043, 'std_class_325_375': 0.011}</t>
+    <t>{'max_depth': 72, 'max_features': 0.1745466176617414, 'min_samples_leaf': 0.0014339075562832043, 'min_samples_split': 0.027564124335800348}</t>
+  </si>
+  <si>
+    <t>{'var_10_25': 0.142, 'kurt_250_300': 0.139, 'kurt_150_200': 0.098, 'max_10_50': 0.094, 'max_10_25': 0.067, 'mean_10_25': 0.062, 'var_225_275': 0.062, 'kurt_175_225': 0.054, 'score_at_perc_10_25': 0.049, 'var_150_200': 0.039, 'coef_kstatvar_300_350': 0.038, 'mean_275_325': 0.027, 'min_50_100': 0.02, 'max_75_125': 0.018, 'score_at_perc_175_225': 0.015, 'mean_10_50': 0.012, 'min_150_200': 0.012, 'mean_175_225': 0.012, 'max_175_225': 0.012, 'min_175_225': 0.012, 'kurt_325_375': 0.012, 'max_225_275': 0.002}</t>
   </si>
   <si>
     <t>R3_T3</t>
   </si>
   <si>
-    <t>{'max_depth': 61, 'max_features': 0.3517326351044758, 'min_samples_leaf': 0.01971320966813294, 'min_samples_split': 0.10353848108705016}</t>
-  </si>
-  <si>
-    <t>{'var_325_375': 0.094, 'mean_10_25': 0.216, 'var_10_25': 0.075, 'max_75_125': 0.259, 'var_75_125': 0.034, 'max_150_200': 0.128, 'var_225_275': 0.079, 'max_250_300': 0.106, 'kurt_250_300': 0.001, 'max_300_350': 0.007}</t>
+    <t>{'max_depth': 26, 'max_features': 0.321020268126073, 'min_samples_leaf': 0.0026361987483083, 'min_samples_split': 0.0176394562187785}</t>
+  </si>
+  <si>
+    <t>{'max_75_125': 0.342, 'min_175_225': 0.08, 'kurt_175_225': 0.066, 'std_class_75_125': 0.063, 'min_275_325': 0.057, 'max_100_150': 0.044, 'kurt_25_75': 0.037, 'var_250_300': 0.037, 'max_250_300': 0.035, 'mean_10_25': 0.034, 'score_at_perc_100_150': 0.028, 'mean_10_50': 0.022, 'kurt_10_50': 0.021, 'skew_150_200': 0.021, 'var_175_225': 0.021, 'std_class_50_100': 0.02, 'score_at_perc_10_50': 0.019, 'mad_100_150': 0.017, 'var_275_325': 0.017, 'mean_125_175': 0.006, 'max_175_225': 0.006, 'var_225_275': 0.005}</t>
   </si>
 </sst>
 </file>
@@ -552,13 +552,10 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="45.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -585,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D2">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -625,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D4">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -648,7 +645,7 @@
         <v>0.93</v>
       </c>
       <c r="D5">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -665,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -705,10 +702,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -745,10 +742,10 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D10">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -765,10 +762,10 @@
         <v>32</v>
       </c>
       <c r="C11">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -785,7 +782,7 @@
         <v>35</v>
       </c>
       <c r="C12">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D12">
         <v>0.93</v>
@@ -848,7 +845,7 @@
         <v>0.97</v>
       </c>
       <c r="D15">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E15" t="s">
         <v>45</v>
@@ -865,10 +862,10 @@
         <v>47</v>
       </c>
       <c r="C16">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D16">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -880,11 +877,11 @@
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f>AVERAGE(C2:C16)</f>
-        <v>0.93666666666666676</v>
+        <v>0.94333333333333347</v>
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(D2:D16)</f>
-        <v>0.86066666666666669</v>
+        <v>0.8620000000000001</v>
       </c>
     </row>
   </sheetData>
